--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1420,7 +1420,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -588,7 +588,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,7 +620,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,7 +652,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,7 +684,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -780,7 +780,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,7 +812,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,7 +908,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,7 +940,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,7 +972,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,7 +1068,7 @@
         <v>1.72</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1132,7 +1132,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,7 +1324,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,7 +1356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1644,7 +1644,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1676,7 +1676,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1708,7 +1708,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,7 +1772,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1804,7 +1804,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,7 +1836,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1202,7 +1202,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1274,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1850,7 +1850,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1141,29 +1141,29 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"שתיתי מספיק מים היום?"</t>
+          <t>"אני חושבת שאני מכוערת."</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.065351473922902</v>
+        <v>2.406666666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>1.565351473922902</v>
+        <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1177,32 +1177,32 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"אני חסרת משמעות."</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.225351473922903</v>
+        <v>2.238684807256236</v>
       </c>
       <c r="I23" t="n">
-        <v>1.725351473922903</v>
+        <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1213,32 +1213,32 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"יש לי תוכניות למחר."</t>
+          <t>"למה אני אף פעם לא מצליחה?"</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.393333333333334</v>
+        <v>2.404013605442177</v>
       </c>
       <c r="I24" t="n">
-        <v>1.893333333333334</v>
+        <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1249,32 +1249,32 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"מה אני אלבש היום?"</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.715986394557823</v>
+        <v>3.414671201814059</v>
       </c>
       <c r="I25" t="n">
-        <v>1.215986394557823</v>
+        <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1285,32 +1285,32 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"אני צריכה לבדוק את המייל."</t>
+          <t>"אני מאוכזבת מהבחירות שלי."</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.886666666666667</v>
+        <v>2.22</v>
       </c>
       <c r="I26" t="n">
-        <v>1.386666666666667</v>
+        <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1321,29 +1321,29 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"אני מבינה עברית."</t>
+          <t>"שום דבר לא מרגיש לי טוב."</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.708004535147392</v>
+        <v>2.052018140589569</v>
       </c>
       <c r="I27" t="n">
-        <v>1.208004535147392</v>
+        <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
         <v>7</v>
@@ -1357,32 +1357,32 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>"אני לא יכולה לסבול את זה יותר."</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2.74265306122449</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.24265306122449</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ntr</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>"מה בא לי לאכול?"</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1.889319727891156</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.389319727891156</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1393,32 +1393,32 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות כביסה."</t>
+          <t>"אני לא מצליחה לארגן דברים."</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2.228004535147392</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>1.728004535147392</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1429,32 +1429,32 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2.569319727891156</v>
+        <v>3.252018140589569</v>
       </c>
       <c r="I30" t="n">
-        <v>2.069319727891156</v>
+        <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1465,29 +1465,29 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"אני חסרת ערך."</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.555986394557823</v>
+        <v>2.393333333333334</v>
       </c>
       <c r="I31" t="n">
-        <v>1.055986394557823</v>
+        <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
         <v>6</v>
@@ -1501,32 +1501,32 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"אני רוצה לקרוא ספר."</t>
+          <t>"הלוואי שהייתי יכולה להיעלם."</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.713333333333333</v>
+        <v>2.238684807256236</v>
       </c>
       <c r="I32" t="n">
-        <v>1.213333333333333</v>
+        <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1537,32 +1537,32 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"אני רוצה לצאת לאימון."</t>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.726666666666667</v>
+        <v>2.06265306122449</v>
       </c>
       <c r="I33" t="n">
-        <v>1.226666666666667</v>
+        <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1573,32 +1573,32 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"מה יש לי לעשות היום?"</t>
+          <t>"אני אף פעם לא אצליח."</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2.06265306122449</v>
+        <v>2.734671201814059</v>
       </c>
       <c r="I34" t="n">
-        <v>1.56265306122449</v>
+        <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1609,29 +1609,29 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"יש לי פגישה בקרוב."</t>
+          <t>"משהו לא בסדר איתי."</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2.228004535147392</v>
+        <v>2.57734693877551</v>
       </c>
       <c r="I35" t="n">
-        <v>1.728004535147392</v>
+        <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
@@ -1645,32 +1645,32 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"העתיד שלי בזבל."</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.230680272108843</v>
+        <v>2.22265306122449</v>
       </c>
       <c r="I36" t="n">
-        <v>1.730680272108843</v>
+        <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1681,32 +1681,32 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות קניות."</t>
+          <t>"קשה לי להתרכז."</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2.235986394557823</v>
+        <v>3.25734693877551</v>
       </c>
       <c r="I37" t="n">
-        <v>1.735986394557823</v>
+        <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1717,32 +1717,32 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D38" t="n">
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"מה אעשה הערב?"</t>
+          <t>"אני פסיבית וחסרת מוטיבציה."</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.718684807256236</v>
+        <v>2.052018140589569</v>
       </c>
       <c r="I38" t="n">
-        <v>1.218684807256236</v>
+        <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1753,32 +1753,32 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"למה אני כל כך מדוכאת?"</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2.049319727891156</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>1.549319727891156</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1789,32 +1789,32 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"הערב אני בבית."</t>
+          <t>"נמאס לי לחשוב על זה."</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2.390680272108844</v>
+        <v>2.06265306122449</v>
       </c>
       <c r="I40" t="n">
-        <v>1.890680272108844</v>
+        <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1825,32 +1825,1472 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
+        <v>139</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>"העתיד שלי חסר תקווה."</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2.401337868480726</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.901337868480726</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>91</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>"שתיתי מספיק מים היום?"</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2.065351473922902</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.565351473922902</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>72</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>"איפה שמתי את המפתחות?"</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2.225351473922903</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.725351473922903</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>80</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>"יש לי תוכניות למחר."</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2.393333333333334</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.893333333333334</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>92</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>"מה אני אלבש היום?"</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1.715986394557823</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.215986394557823</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>"אני צריכה לבדוק את המייל."</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1.886666666666667</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.386666666666667</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>74</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>"אני מבינה עברית."</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1.708004535147392</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.208004535147392</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>93</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>"מה בא לי לאכול?"</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1.889319727891156</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.389319727891156</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>97</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות כביסה."</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2.228004535147392</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.728004535147392</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>99</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>"אני צריכה לשלוח הודעה."</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2.569319727891156</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.069319727891156</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>70</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>"אני נושמת."</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1.555986394557823</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.055986394557823</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>76</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>"אני רוצה לקרוא ספר."</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1.713333333333333</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.213333333333333</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>81</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>"אני רוצה לצאת לאימון."</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1.726666666666667</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.226666666666667</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>86</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>"מה יש לי לעשות היום?"</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2.06265306122449</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.56265306122449</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>95</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>"יש לי פגישה בקרוב."</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2.228004535147392</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.728004535147392</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>85</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>"אני רוצה להסתפר."</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2.230680272108843</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.730680272108843</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>90</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות קניות."</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2.235986394557823</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.735986394557823</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>96</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>"מה אעשה הערב?"</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1.718684807256236</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.218684807256236</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות טלפון."</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2.049319727891156</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.549319727891156</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>87</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>"הערב אני בבית."</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2.390680272108844</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.890680272108844</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
         <v>69</v>
       </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ntr</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>"אני נועלת נעליים."</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H61" t="n">
         <v>3.772018140589569</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I61" t="n">
         <v>3.272018140589569</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>140</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>"שתיתי מספיק מים היום?"</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2.065351473922902</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.565351473922902</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>101</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>"איפה שמתי את המפתחות?"</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2.390680272108844</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.890680272108844</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>102</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>"יש לי תוכניות למחר."</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2.049319727891156</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.549319727891156</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>103</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>"מה אני אלבש היום?"</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1.718684807256236</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.218684807256236</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>104</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>"אני צריכה לבדוק את המייל."</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2.235986394557823</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.735986394557823</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>105</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>"אני מבינה עברית."</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2.230680272108843</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.730680272108843</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>106</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>"מה בא לי לאכול?"</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2.228004535147392</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.728004535147392</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>107</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות כביסה."</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2.06265306122449</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.56265306122449</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>108</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>"אני צריכה לשלוח הודעה."</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1.726666666666667</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.226666666666667</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>109</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>"אני נושמת."</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1.713333333333333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.213333333333333</v>
+      </c>
+      <c r="J71" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>110</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>"אני רוצה לקרוא ספר."</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1.555986394557823</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.055986394557823</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>111</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>"אני רוצה לצאת לאימון."</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2.569319727891156</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.069319727891156</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>112</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>"מה יש לי לעשות היום?"</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2.228004535147392</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.728004535147392</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>113</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>"יש לי פגישה בקרוב."</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1.889319727891156</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.389319727891156</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>"אני רוצה להסתפר."</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1.708004535147392</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.208004535147392</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>115</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות קניות."</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1.886666666666667</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.386666666666667</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>116</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>"מה אעשה הערב?"</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1.715986394557823</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.215986394557823</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>117</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות טלפון."</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2.393333333333334</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.893333333333334</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>118</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>"הערב אני בבית."</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2.225351473922903</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.725351473922903</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>119</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>"אני נועלת נעליים."</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3.772018140589569</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.272018140589569</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/audio_data_digit.xlsx
+++ b/Subjects/subject 1/audio_data_digit.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
